--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="461">
   <si>
     <t>TCID</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>25035</t>
+  </si>
+  <si>
+    <t>sags</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1772,7 @@
   <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS17" workbookViewId="0">
-      <selection activeCell="AV19" sqref="AV19:AV37"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -5094,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -5258,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -5422,7 +5425,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -5586,7 +5589,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -5750,7 +5753,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -5914,7 +5917,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -6078,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -6242,7 +6245,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -6406,7 +6409,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -6570,7 +6573,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -6734,7 +6737,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -6898,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -7062,7 +7065,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -7226,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -7390,7 +7393,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -7551,7 +7554,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -7712,7 +7715,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>

--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
@@ -757,12 +757,6 @@
     <t>testfirm3</t>
   </si>
   <si>
-    <t>testfirm4</t>
-  </si>
-  <si>
-    <t>testfirm5</t>
-  </si>
-  <si>
     <t>testfirm8</t>
   </si>
   <si>
@@ -778,12 +772,6 @@
     <t>testfirm12</t>
   </si>
   <si>
-    <t>testfirm13</t>
-  </si>
-  <si>
-    <t>testfirm14</t>
-  </si>
-  <si>
     <t>testfirm17</t>
   </si>
   <si>
@@ -1402,7 +1390,19 @@
     <t>25035</t>
   </si>
   <si>
-    <t>sags</t>
+    <t>sagarp</t>
+  </si>
+  <si>
+    <t>testfirm15</t>
+  </si>
+  <si>
+    <t>testfirm16</t>
+  </si>
+  <si>
+    <t>testfirm6</t>
+  </si>
+  <si>
+    <t>testfirm7</t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AS14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,19 +1980,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -2016,10 +2016,10 @@
         <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>62</v>
@@ -2121,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>100</v>
@@ -2134,7 +2134,7 @@
         <v>12</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC2" t="s">
         <v>12</v>
@@ -2146,19 +2146,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2182,10 +2182,10 @@
         <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>62</v>
@@ -2287,7 +2287,7 @@
         <v>102</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -2298,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC3" t="s">
         <v>12</v>
@@ -2310,19 +2310,19 @@
         <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -2346,10 +2346,10 @@
         <v>85</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>62</v>
@@ -2451,7 +2451,7 @@
         <v>103</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -2462,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC4" t="s">
         <v>12</v>
@@ -2474,19 +2474,19 @@
         <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -2510,10 +2510,10 @@
         <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>62</v>
@@ -2606,7 +2606,7 @@
         <v>28</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AU5" s="4" t="s">
         <v>82</v>
@@ -2615,7 +2615,7 @@
         <v>104</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -2626,10 +2626,10 @@
         <v>9</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD5" s="2"/>
     </row>
@@ -2638,19 +2638,19 @@
         <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -2674,10 +2674,10 @@
         <v>84</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>62</v>
@@ -2770,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AU6" s="4" t="s">
         <v>82</v>
@@ -2779,7 +2779,7 @@
         <v>105</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
@@ -2790,10 +2790,10 @@
         <v>9</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD6" s="2"/>
     </row>
@@ -2802,19 +2802,19 @@
         <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -2838,10 +2838,10 @@
         <v>28</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>62</v>
@@ -2934,7 +2934,7 @@
         <v>28</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>82</v>
@@ -2943,7 +2943,7 @@
         <v>106</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
@@ -2954,10 +2954,10 @@
         <v>9</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD7" s="2"/>
     </row>
@@ -2966,19 +2966,19 @@
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -3002,10 +3002,10 @@
         <v>28</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>62</v>
@@ -3098,7 +3098,7 @@
         <v>28</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>82</v>
@@ -3107,7 +3107,7 @@
         <v>107</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -3118,10 +3118,10 @@
         <v>9</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD8" s="2"/>
     </row>
@@ -3130,19 +3130,19 @@
         <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -3166,10 +3166,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>62</v>
@@ -3262,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AU9" s="4" t="s">
         <v>82</v>
@@ -3271,7 +3271,7 @@
         <v>108</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -3282,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC9" t="s">
         <v>12</v>
@@ -3294,19 +3294,19 @@
         <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -3330,10 +3330,10 @@
         <v>85</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>62</v>
@@ -3426,7 +3426,7 @@
         <v>28</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AU10" s="4" t="s">
         <v>82</v>
@@ -3435,7 +3435,7 @@
         <v>109</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -3446,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC10" t="s">
         <v>12</v>
@@ -3458,19 +3458,19 @@
         <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -3494,10 +3494,10 @@
         <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>62</v>
@@ -3590,7 +3590,7 @@
         <v>28</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AU11" s="4" t="s">
         <v>82</v>
@@ -3599,7 +3599,7 @@
         <v>110</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -3610,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC11" t="s">
         <v>12</v>
@@ -3622,19 +3622,19 @@
         <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -3658,10 +3658,10 @@
         <v>88</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>62</v>
@@ -3754,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU12" s="4" t="s">
         <v>82</v>
@@ -3763,7 +3763,7 @@
         <v>111</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -3774,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC12" t="s">
         <v>12</v>
@@ -3786,19 +3786,19 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -3822,10 +3822,10 @@
         <v>89</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>62</v>
@@ -3918,7 +3918,7 @@
         <v>28</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU13" s="4" t="s">
         <v>82</v>
@@ -3927,7 +3927,7 @@
         <v>112</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -3938,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC13" t="s">
         <v>12</v>
@@ -3950,19 +3950,19 @@
         <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -3986,10 +3986,10 @@
         <v>90</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>62</v>
@@ -4082,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AU14" s="4" t="s">
         <v>82</v>
@@ -4091,21 +4091,21 @@
         <v>113</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BA14" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="BB14" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD14" s="2"/>
     </row>
@@ -4114,19 +4114,19 @@
         <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -4150,10 +4150,10 @@
         <v>89</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>62</v>
@@ -4246,7 +4246,7 @@
         <v>28</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AU15" s="4" t="s">
         <v>82</v>
@@ -4255,7 +4255,7 @@
         <v>114</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -4266,10 +4266,10 @@
         <v>9</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD15" s="2"/>
     </row>
@@ -4278,19 +4278,19 @@
         <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -4314,10 +4314,10 @@
         <v>90</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>62</v>
@@ -4410,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>276</v>
+        <v>457</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>82</v>
@@ -4419,7 +4419,7 @@
         <v>115</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4430,10 +4430,10 @@
         <v>9</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD16" s="2"/>
     </row>
@@ -4442,19 +4442,19 @@
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -4478,10 +4478,10 @@
         <v>89</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>62</v>
@@ -4574,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>82</v>
@@ -4583,7 +4583,7 @@
         <v>116</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ17" s="3" t="s">
         <v>9</v>
@@ -4592,10 +4592,10 @@
         <v>9</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
@@ -4603,19 +4603,19 @@
         <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -4639,10 +4639,10 @@
         <v>90</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>62</v>
@@ -4735,7 +4735,7 @@
         <v>28</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>82</v>
@@ -4744,7 +4744,7 @@
         <v>117</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ18" s="3" t="s">
         <v>12</v>
@@ -4753,7 +4753,7 @@
         <v>9</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC18" t="s">
         <v>12</v>
@@ -4764,19 +4764,19 @@
         <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -4800,10 +4800,10 @@
         <v>90</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -4896,7 +4896,7 @@
         <v>28</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AU19" s="4" t="s">
         <v>82</v>
@@ -4905,7 +4905,7 @@
         <v>118</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>9</v>
@@ -4914,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC19" t="s">
         <v>12</v>
@@ -4922,22 +4922,22 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -4961,10 +4961,10 @@
         <v>28</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>62</v>
@@ -5006,10 +5006,10 @@
         <v>71</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>62</v>
@@ -5036,7 +5036,7 @@
         <v>77</v>
       </c>
       <c r="AM20" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AN20" s="4" t="s">
         <v>78</v>
@@ -5063,10 +5063,10 @@
         <v>82</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX20" s="4" t="s">
         <v>100</v>
@@ -5079,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC20" t="s">
         <v>9</v>
@@ -5088,22 +5088,22 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -5127,10 +5127,10 @@
         <v>84</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>62</v>
@@ -5172,10 +5172,10 @@
         <v>71</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>62</v>
@@ -5202,7 +5202,7 @@
         <v>77</v>
       </c>
       <c r="AM21" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AN21" s="4" t="s">
         <v>78</v>
@@ -5229,10 +5229,10 @@
         <v>82</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
@@ -5243,7 +5243,7 @@
         <v>9</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC21" t="s">
         <v>9</v>
@@ -5252,22 +5252,22 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -5291,10 +5291,10 @@
         <v>85</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>62</v>
@@ -5336,10 +5336,10 @@
         <v>71</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>62</v>
@@ -5366,7 +5366,7 @@
         <v>77</v>
       </c>
       <c r="AM22" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AN22" s="4" t="s">
         <v>78</v>
@@ -5393,10 +5393,10 @@
         <v>82</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
@@ -5407,7 +5407,7 @@
         <v>9</v>
       </c>
       <c r="BB22" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC22" t="s">
         <v>9</v>
@@ -5416,22 +5416,22 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -5455,10 +5455,10 @@
         <v>28</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>62</v>
@@ -5500,10 +5500,10 @@
         <v>71</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>62</v>
@@ -5530,7 +5530,7 @@
         <v>77</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AN23" s="4" t="s">
         <v>78</v>
@@ -5551,16 +5551,16 @@
         <v>28</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AU23" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
@@ -5571,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="BB23" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC23" t="s">
         <v>9</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -5619,10 +5619,10 @@
         <v>84</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>62</v>
@@ -5664,10 +5664,10 @@
         <v>71</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>62</v>
@@ -5694,7 +5694,7 @@
         <v>77</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>78</v>
@@ -5715,16 +5715,16 @@
         <v>28</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AU24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
@@ -5735,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="BB24" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC24" t="s">
         <v>9</v>
@@ -5744,22 +5744,22 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -5783,10 +5783,10 @@
         <v>28</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>62</v>
@@ -5828,10 +5828,10 @@
         <v>71</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>62</v>
@@ -5858,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AN25" s="4" t="s">
         <v>78</v>
@@ -5879,16 +5879,16 @@
         <v>28</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="AU25" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
@@ -5899,7 +5899,7 @@
         <v>9</v>
       </c>
       <c r="BB25" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC25" t="s">
         <v>9</v>
@@ -5908,22 +5908,22 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
@@ -5947,10 +5947,10 @@
         <v>28</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>62</v>
@@ -5992,10 +5992,10 @@
         <v>71</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>62</v>
@@ -6022,7 +6022,7 @@
         <v>77</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AN26" s="4" t="s">
         <v>78</v>
@@ -6043,16 +6043,16 @@
         <v>28</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="AU26" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
@@ -6063,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="BB26" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC26" t="s">
         <v>9</v>
@@ -6072,22 +6072,22 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -6111,10 +6111,10 @@
         <v>28</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>62</v>
@@ -6156,10 +6156,10 @@
         <v>71</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>62</v>
@@ -6186,7 +6186,7 @@
         <v>77</v>
       </c>
       <c r="AM27" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN27" s="4" t="s">
         <v>78</v>
@@ -6207,16 +6207,16 @@
         <v>28</v>
       </c>
       <c r="AT27" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AU27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
@@ -6227,7 +6227,7 @@
         <v>9</v>
       </c>
       <c r="BB27" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC27" t="s">
         <v>9</v>
@@ -6236,22 +6236,22 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -6275,10 +6275,10 @@
         <v>85</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>62</v>
@@ -6320,10 +6320,10 @@
         <v>71</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>62</v>
@@ -6350,7 +6350,7 @@
         <v>77</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AN28" s="4" t="s">
         <v>78</v>
@@ -6371,16 +6371,16 @@
         <v>28</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AU28" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
@@ -6391,7 +6391,7 @@
         <v>9</v>
       </c>
       <c r="BB28" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC28" t="s">
         <v>9</v>
@@ -6400,22 +6400,22 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -6439,10 +6439,10 @@
         <v>87</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>62</v>
@@ -6484,10 +6484,10 @@
         <v>71</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AE29" s="4" t="s">
         <v>62</v>
@@ -6514,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>78</v>
@@ -6535,16 +6535,16 @@
         <v>28</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AU29" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="BB29" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC29" t="s">
         <v>9</v>
@@ -6564,22 +6564,22 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -6603,10 +6603,10 @@
         <v>88</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>62</v>
@@ -6648,10 +6648,10 @@
         <v>71</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>62</v>
@@ -6678,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>78</v>
@@ -6699,16 +6699,16 @@
         <v>28</v>
       </c>
       <c r="AT30" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU30" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
@@ -6719,7 +6719,7 @@
         <v>9</v>
       </c>
       <c r="BB30" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC30" t="s">
         <v>9</v>
@@ -6728,22 +6728,22 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -6767,10 +6767,10 @@
         <v>89</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>62</v>
@@ -6812,10 +6812,10 @@
         <v>71</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AE31" s="4" t="s">
         <v>62</v>
@@ -6842,7 +6842,7 @@
         <v>77</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>78</v>
@@ -6863,16 +6863,16 @@
         <v>28</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU31" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
@@ -6883,7 +6883,7 @@
         <v>9</v>
       </c>
       <c r="BB31" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC31" t="s">
         <v>9</v>
@@ -6892,22 +6892,22 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -6931,10 +6931,10 @@
         <v>90</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>62</v>
@@ -6976,10 +6976,10 @@
         <v>71</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AE32" s="4" t="s">
         <v>62</v>
@@ -7006,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>78</v>
@@ -7027,16 +7027,16 @@
         <v>28</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AU32" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
@@ -7047,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="BB32" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC32" t="s">
         <v>9</v>
@@ -7056,22 +7056,22 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -7095,10 +7095,10 @@
         <v>89</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>62</v>
@@ -7140,10 +7140,10 @@
         <v>71</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AE33" s="4" t="s">
         <v>62</v>
@@ -7170,7 +7170,7 @@
         <v>77</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>78</v>
@@ -7191,16 +7191,16 @@
         <v>28</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AU33" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
@@ -7211,7 +7211,7 @@
         <v>9</v>
       </c>
       <c r="BB33" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC33" t="s">
         <v>9</v>
@@ -7220,22 +7220,22 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -7259,10 +7259,10 @@
         <v>90</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>62</v>
@@ -7304,10 +7304,10 @@
         <v>71</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>62</v>
@@ -7334,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>78</v>
@@ -7355,16 +7355,16 @@
         <v>28</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>276</v>
+        <v>457</v>
       </c>
       <c r="AU34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
@@ -7375,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="BB34" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC34" t="s">
         <v>9</v>
@@ -7384,22 +7384,22 @@
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -7423,10 +7423,10 @@
         <v>89</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>62</v>
@@ -7468,10 +7468,10 @@
         <v>71</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AE35" s="4" t="s">
         <v>62</v>
@@ -7498,7 +7498,7 @@
         <v>77</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>78</v>
@@ -7519,16 +7519,16 @@
         <v>28</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="AU35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ35" s="3" t="s">
         <v>9</v>
@@ -7537,7 +7537,7 @@
         <v>9</v>
       </c>
       <c r="BB35" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC35" t="s">
         <v>9</v>
@@ -7545,22 +7545,22 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -7584,10 +7584,10 @@
         <v>90</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>62</v>
@@ -7629,10 +7629,10 @@
         <v>71</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>62</v>
@@ -7659,7 +7659,7 @@
         <v>77</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN36" s="4" t="s">
         <v>78</v>
@@ -7680,16 +7680,16 @@
         <v>28</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AU36" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ36" s="3" t="s">
         <v>12</v>
@@ -7698,7 +7698,7 @@
         <v>9</v>
       </c>
       <c r="BB36" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC36" t="s">
         <v>9</v>
@@ -7706,22 +7706,22 @@
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -7745,10 +7745,10 @@
         <v>90</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>62</v>
@@ -7790,10 +7790,10 @@
         <v>71</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AE37" s="4" t="s">
         <v>62</v>
@@ -7820,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN37" s="4" t="s">
         <v>78</v>
@@ -7841,16 +7841,16 @@
         <v>28</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AU37" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ37" s="3" t="s">
         <v>9</v>
@@ -7859,7 +7859,7 @@
         <v>9</v>
       </c>
       <c r="BB37" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BC37" t="s">
         <v>9</v>

--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
@@ -832,9 +832,6 @@
     <t>2518</t>
   </si>
   <si>
-    <t>deepali</t>
-  </si>
-  <si>
     <t>tcm-logo.jpe</t>
   </si>
   <si>
@@ -844,9 +841,6 @@
     <t>05/04/2017</t>
   </si>
   <si>
-    <t>http://demo.invessence.com:8080/login.xhtml?rep=100</t>
-  </si>
-  <si>
     <t>tcm100testlname1</t>
   </si>
   <si>
@@ -961,9 +955,6 @@
     <t>TC020</t>
   </si>
   <si>
-    <t>http://demo.invessence.com:8080/login.xhtml?rep=200</t>
-  </si>
-  <si>
     <t>TC021</t>
   </si>
   <si>
@@ -1066,114 +1057,6 @@
     <t>2536</t>
   </si>
   <si>
-    <t>tcm100testfname19</t>
-  </si>
-  <si>
-    <t>tcm100testfname20</t>
-  </si>
-  <si>
-    <t>tcm100testfname21</t>
-  </si>
-  <si>
-    <t>tcm100testfname22</t>
-  </si>
-  <si>
-    <t>tcm100testfname23</t>
-  </si>
-  <si>
-    <t>tcm100testfname24</t>
-  </si>
-  <si>
-    <t>tcm100testfname25</t>
-  </si>
-  <si>
-    <t>tcm100testfname26</t>
-  </si>
-  <si>
-    <t>tcm100testfname27</t>
-  </si>
-  <si>
-    <t>tcm100testfname28</t>
-  </si>
-  <si>
-    <t>tcm100testfname29</t>
-  </si>
-  <si>
-    <t>tcm100testfname30</t>
-  </si>
-  <si>
-    <t>tcm100testfname31</t>
-  </si>
-  <si>
-    <t>tcm100testfname32</t>
-  </si>
-  <si>
-    <t>tcm100testfname33</t>
-  </si>
-  <si>
-    <t>tcm100testfname34</t>
-  </si>
-  <si>
-    <t>tcm100testfname35</t>
-  </si>
-  <si>
-    <t>tcm100testfname36</t>
-  </si>
-  <si>
-    <t>tcm100testlname19</t>
-  </si>
-  <si>
-    <t>tcm100testlname20</t>
-  </si>
-  <si>
-    <t>tcm100testlname21</t>
-  </si>
-  <si>
-    <t>tcm100testlname22</t>
-  </si>
-  <si>
-    <t>tcm100testlname23</t>
-  </si>
-  <si>
-    <t>tcm100testlname24</t>
-  </si>
-  <si>
-    <t>tcm100testlname25</t>
-  </si>
-  <si>
-    <t>tcm100testlname26</t>
-  </si>
-  <si>
-    <t>tcm100testlname27</t>
-  </si>
-  <si>
-    <t>tcm100testlname28</t>
-  </si>
-  <si>
-    <t>tcm100testlname29</t>
-  </si>
-  <si>
-    <t>tcm100testlname30</t>
-  </si>
-  <si>
-    <t>tcm100testlname31</t>
-  </si>
-  <si>
-    <t>tcm100testlname32</t>
-  </si>
-  <si>
-    <t>tcm100testlname33</t>
-  </si>
-  <si>
-    <t>tcm100testlname34</t>
-  </si>
-  <si>
-    <t>tcm100testlname35</t>
-  </si>
-  <si>
-    <t>tcm100testlname36</t>
-  </si>
-  <si>
     <t>BenificiaryFN19</t>
   </si>
   <si>
@@ -1390,9 +1273,6 @@
     <t>25035</t>
   </si>
   <si>
-    <t>sagarp</t>
-  </si>
-  <si>
     <t>testfirm15</t>
   </si>
   <si>
@@ -1403,6 +1283,126 @@
   </si>
   <si>
     <t>testfirm7</t>
+  </si>
+  <si>
+    <t>tcm200testfname19</t>
+  </si>
+  <si>
+    <t>tcm200testfname20</t>
+  </si>
+  <si>
+    <t>tcm200testfname21</t>
+  </si>
+  <si>
+    <t>tcm200testfname22</t>
+  </si>
+  <si>
+    <t>tcm200testfname23</t>
+  </si>
+  <si>
+    <t>tcm200testfname24</t>
+  </si>
+  <si>
+    <t>tcm200testfname25</t>
+  </si>
+  <si>
+    <t>tcm200testfname26</t>
+  </si>
+  <si>
+    <t>tcm200testfname27</t>
+  </si>
+  <si>
+    <t>tcm200testfname28</t>
+  </si>
+  <si>
+    <t>tcm200testfname29</t>
+  </si>
+  <si>
+    <t>tcm200testfname30</t>
+  </si>
+  <si>
+    <t>tcm200testfname31</t>
+  </si>
+  <si>
+    <t>tcm200testfname32</t>
+  </si>
+  <si>
+    <t>tcm200testfname33</t>
+  </si>
+  <si>
+    <t>tcm200testfname34</t>
+  </si>
+  <si>
+    <t>tcm200testfname35</t>
+  </si>
+  <si>
+    <t>tcm200testfname36</t>
+  </si>
+  <si>
+    <t>tcm200testlname19</t>
+  </si>
+  <si>
+    <t>tcm200testlname20</t>
+  </si>
+  <si>
+    <t>tcm200testlname21</t>
+  </si>
+  <si>
+    <t>tcm200testlname22</t>
+  </si>
+  <si>
+    <t>tcm200testlname23</t>
+  </si>
+  <si>
+    <t>tcm200testlname24</t>
+  </si>
+  <si>
+    <t>tcm200testlname25</t>
+  </si>
+  <si>
+    <t>tcm200testlname26</t>
+  </si>
+  <si>
+    <t>tcm200testlname27</t>
+  </si>
+  <si>
+    <t>tcm200testlname28</t>
+  </si>
+  <si>
+    <t>tcm200testlname29</t>
+  </si>
+  <si>
+    <t>tcm200testlname30</t>
+  </si>
+  <si>
+    <t>tcm200testlname31</t>
+  </si>
+  <si>
+    <t>tcm200testlname32</t>
+  </si>
+  <si>
+    <t>tcm200testlname33</t>
+  </si>
+  <si>
+    <t>tcm200testlname34</t>
+  </si>
+  <si>
+    <t>tcm200testlname35</t>
+  </si>
+  <si>
+    <t>tcm200testlname36</t>
+  </si>
+  <si>
+    <t>tcmintrepqa.user</t>
+  </si>
+  <si>
+    <t>tcmextrepqa.user</t>
+  </si>
+  <si>
+    <t>http://uattcm.invessence.com:8080//login.xhtml?rep=100</t>
+  </si>
+  <si>
+    <t>http://uattcm.invessence.com:8080/login.xhtml?rep=200</t>
   </si>
 </sst>
 </file>
@@ -1447,13 +1447,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1771,13 +1774,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AS14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BD19" sqref="BD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -1980,13 +1983,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>270</v>
+      <c r="D2" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2016,10 +2019,10 @@
         <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>62</v>
@@ -2121,7 +2124,7 @@
         <v>83</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>100</v>
@@ -2134,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC2" t="s">
         <v>12</v>
@@ -2146,13 +2149,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>270</v>
+      <c r="D3" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -2182,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>62</v>
@@ -2287,7 +2290,7 @@
         <v>102</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -2298,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC3" t="s">
         <v>12</v>
@@ -2310,13 +2313,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>270</v>
+      <c r="D4" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2346,10 +2349,10 @@
         <v>85</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>62</v>
@@ -2451,7 +2454,7 @@
         <v>103</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -2462,7 +2465,7 @@
         <v>9</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC4" t="s">
         <v>12</v>
@@ -2474,13 +2477,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>270</v>
+      <c r="D5" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2510,10 +2513,10 @@
         <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>62</v>
@@ -2606,7 +2609,7 @@
         <v>28</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU5" s="4" t="s">
         <v>82</v>
@@ -2615,7 +2618,7 @@
         <v>104</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -2626,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD5" s="2"/>
     </row>
@@ -2638,13 +2641,13 @@
         <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>270</v>
+      <c r="D6" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2674,10 +2677,10 @@
         <v>84</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>62</v>
@@ -2770,7 +2773,7 @@
         <v>28</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU6" s="4" t="s">
         <v>82</v>
@@ -2779,7 +2782,7 @@
         <v>105</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
@@ -2790,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD6" s="2"/>
     </row>
@@ -2802,13 +2805,13 @@
         <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>270</v>
+      <c r="D7" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2838,10 +2841,10 @@
         <v>28</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>62</v>
@@ -2934,7 +2937,7 @@
         <v>28</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>82</v>
@@ -2943,7 +2946,7 @@
         <v>106</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
@@ -2954,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD7" s="2"/>
     </row>
@@ -2966,13 +2969,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>270</v>
+      <c r="D8" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3002,10 +3005,10 @@
         <v>28</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>62</v>
@@ -3098,7 +3101,7 @@
         <v>28</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>82</v>
@@ -3107,7 +3110,7 @@
         <v>107</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -3118,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD8" s="2"/>
     </row>
@@ -3130,13 +3133,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>270</v>
+      <c r="D9" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -3166,10 +3169,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>62</v>
@@ -3271,7 +3274,7 @@
         <v>108</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -3282,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC9" t="s">
         <v>12</v>
@@ -3294,13 +3297,13 @@
         <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>270</v>
+      <c r="D10" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3330,10 +3333,10 @@
         <v>85</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>62</v>
@@ -3435,7 +3438,7 @@
         <v>109</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -3446,10 +3449,10 @@
         <v>9</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD10" s="2"/>
     </row>
@@ -3458,13 +3461,13 @@
         <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>270</v>
+      <c r="D11" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3494,10 +3497,10 @@
         <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>62</v>
@@ -3599,7 +3602,7 @@
         <v>110</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -3610,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC11" t="s">
         <v>12</v>
@@ -3622,13 +3625,13 @@
         <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>270</v>
+      <c r="D12" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3658,10 +3661,10 @@
         <v>88</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>62</v>
@@ -3763,7 +3766,7 @@
         <v>111</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -3774,7 +3777,7 @@
         <v>9</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC12" t="s">
         <v>12</v>
@@ -3786,13 +3789,13 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>270</v>
+      <c r="D13" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -3822,10 +3825,10 @@
         <v>89</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>62</v>
@@ -3927,7 +3930,7 @@
         <v>112</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -3938,7 +3941,7 @@
         <v>9</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC13" t="s">
         <v>12</v>
@@ -3950,13 +3953,13 @@
         <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>270</v>
+      <c r="D14" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3986,10 +3989,10 @@
         <v>90</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>62</v>
@@ -4082,7 +4085,7 @@
         <v>28</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU14" s="4" t="s">
         <v>82</v>
@@ -4091,7 +4094,7 @@
         <v>113</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
@@ -4102,10 +4105,10 @@
         <v>9</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD14" s="2"/>
     </row>
@@ -4114,13 +4117,13 @@
         <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>270</v>
+      <c r="D15" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -4150,10 +4153,10 @@
         <v>89</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>62</v>
@@ -4246,7 +4249,7 @@
         <v>28</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU15" s="4" t="s">
         <v>82</v>
@@ -4255,7 +4258,7 @@
         <v>114</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -4266,10 +4269,10 @@
         <v>9</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD15" s="2"/>
     </row>
@@ -4278,13 +4281,13 @@
         <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>270</v>
+      <c r="D16" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -4314,10 +4317,10 @@
         <v>90</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>62</v>
@@ -4410,7 +4413,7 @@
         <v>28</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>82</v>
@@ -4419,7 +4422,7 @@
         <v>115</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4430,10 +4433,10 @@
         <v>9</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD16" s="2"/>
     </row>
@@ -4442,13 +4445,13 @@
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
-        <v>270</v>
+      <c r="D17" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4478,10 +4481,10 @@
         <v>89</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>62</v>
@@ -4574,7 +4577,7 @@
         <v>28</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>82</v>
@@ -4583,7 +4586,7 @@
         <v>116</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ17" s="3" t="s">
         <v>9</v>
@@ -4592,10 +4595,10 @@
         <v>9</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
@@ -4603,13 +4606,13 @@
         <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>270</v>
+      <c r="D18" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -4639,10 +4642,10 @@
         <v>90</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>62</v>
@@ -4744,7 +4747,7 @@
         <v>117</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ18" s="3" t="s">
         <v>12</v>
@@ -4753,7 +4756,7 @@
         <v>9</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC18" t="s">
         <v>12</v>
@@ -4764,13 +4767,13 @@
         <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>270</v>
+      <c r="D19" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -4800,10 +4803,10 @@
         <v>90</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -4905,7 +4908,7 @@
         <v>118</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>9</v>
@@ -4914,30 +4917,30 @@
         <v>9</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>456</v>
+      <c r="D20" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -4961,10 +4964,10 @@
         <v>28</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>62</v>
@@ -5006,10 +5009,10 @@
         <v>71</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>62</v>
@@ -5036,7 +5039,7 @@
         <v>77</v>
       </c>
       <c r="AM20" s="4" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="AN20" s="4" t="s">
         <v>78</v>
@@ -5063,10 +5066,10 @@
         <v>82</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX20" s="4" t="s">
         <v>100</v>
@@ -5079,31 +5082,31 @@
         <v>12</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD20" s="2"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
-        <v>456</v>
+      <c r="D21" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -5127,10 +5130,10 @@
         <v>84</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>62</v>
@@ -5172,10 +5175,10 @@
         <v>71</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>62</v>
@@ -5202,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="AM21" s="4" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="AN21" s="4" t="s">
         <v>78</v>
@@ -5229,10 +5232,10 @@
         <v>82</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
@@ -5243,31 +5246,31 @@
         <v>9</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD21" s="2"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>456</v>
+      <c r="D22" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -5291,10 +5294,10 @@
         <v>85</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>368</v>
+        <v>441</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>62</v>
@@ -5336,10 +5339,10 @@
         <v>71</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>62</v>
@@ -5366,7 +5369,7 @@
         <v>77</v>
       </c>
       <c r="AM22" s="4" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="AN22" s="4" t="s">
         <v>78</v>
@@ -5393,10 +5396,10 @@
         <v>82</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
@@ -5407,31 +5410,31 @@
         <v>9</v>
       </c>
       <c r="BB22" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD22" s="2"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>456</v>
+      <c r="D23" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -5455,10 +5458,10 @@
         <v>28</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>62</v>
@@ -5500,10 +5503,10 @@
         <v>71</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>62</v>
@@ -5530,7 +5533,7 @@
         <v>77</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="AN23" s="4" t="s">
         <v>78</v>
@@ -5551,16 +5554,16 @@
         <v>28</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU23" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
@@ -5571,31 +5574,31 @@
         <v>9</v>
       </c>
       <c r="BB23" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD23" s="2"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>456</v>
+      <c r="D24" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -5619,10 +5622,10 @@
         <v>84</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>62</v>
@@ -5664,10 +5667,10 @@
         <v>71</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>62</v>
@@ -5694,7 +5697,7 @@
         <v>77</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>78</v>
@@ -5715,16 +5718,16 @@
         <v>28</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
@@ -5735,31 +5738,31 @@
         <v>9</v>
       </c>
       <c r="BB24" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD24" s="2"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
-        <v>456</v>
+      <c r="D25" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -5783,10 +5786,10 @@
         <v>28</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>62</v>
@@ -5828,10 +5831,10 @@
         <v>71</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>62</v>
@@ -5858,7 +5861,7 @@
         <v>77</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="AN25" s="4" t="s">
         <v>78</v>
@@ -5879,16 +5882,16 @@
         <v>28</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="AU25" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
@@ -5899,31 +5902,31 @@
         <v>9</v>
       </c>
       <c r="BB25" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD25" s="2"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>456</v>
+      <c r="D26" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
@@ -5947,10 +5950,10 @@
         <v>28</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>62</v>
@@ -5992,10 +5995,10 @@
         <v>71</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>62</v>
@@ -6022,7 +6025,7 @@
         <v>77</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="AN26" s="4" t="s">
         <v>78</v>
@@ -6043,16 +6046,16 @@
         <v>28</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="AU26" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
@@ -6063,31 +6066,31 @@
         <v>9</v>
       </c>
       <c r="BB26" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD26" s="2"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>456</v>
+      <c r="D27" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -6111,10 +6114,10 @@
         <v>28</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>62</v>
@@ -6156,10 +6159,10 @@
         <v>71</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>62</v>
@@ -6186,7 +6189,7 @@
         <v>77</v>
       </c>
       <c r="AM27" s="4" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="AN27" s="4" t="s">
         <v>78</v>
@@ -6213,10 +6216,10 @@
         <v>82</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
@@ -6227,31 +6230,31 @@
         <v>9</v>
       </c>
       <c r="BB27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD27" s="2"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>456</v>
+      <c r="D28" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -6275,10 +6278,10 @@
         <v>85</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>62</v>
@@ -6320,10 +6323,10 @@
         <v>71</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>62</v>
@@ -6350,7 +6353,7 @@
         <v>77</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AN28" s="4" t="s">
         <v>78</v>
@@ -6377,10 +6380,10 @@
         <v>82</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
@@ -6391,31 +6394,31 @@
         <v>9</v>
       </c>
       <c r="BB28" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD28" s="2"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>456</v>
+      <c r="D29" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -6439,10 +6442,10 @@
         <v>87</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>62</v>
@@ -6484,10 +6487,10 @@
         <v>71</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="AE29" s="4" t="s">
         <v>62</v>
@@ -6514,7 +6517,7 @@
         <v>77</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>78</v>
@@ -6541,10 +6544,10 @@
         <v>82</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
@@ -6555,31 +6558,31 @@
         <v>12</v>
       </c>
       <c r="BB29" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD29" s="2"/>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
-        <v>456</v>
+      <c r="D30" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -6603,10 +6606,10 @@
         <v>88</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>62</v>
@@ -6648,10 +6651,10 @@
         <v>71</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>62</v>
@@ -6678,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>78</v>
@@ -6705,10 +6708,10 @@
         <v>82</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
@@ -6719,31 +6722,31 @@
         <v>9</v>
       </c>
       <c r="BB30" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD30" s="2"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
-        <v>456</v>
+      <c r="D31" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -6767,10 +6770,10 @@
         <v>89</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>62</v>
@@ -6812,10 +6815,10 @@
         <v>71</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="AE31" s="4" t="s">
         <v>62</v>
@@ -6842,7 +6845,7 @@
         <v>77</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>78</v>
@@ -6869,10 +6872,10 @@
         <v>82</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
@@ -6883,31 +6886,31 @@
         <v>9</v>
       </c>
       <c r="BB31" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD31" s="2"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>456</v>
+      <c r="D32" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -6931,10 +6934,10 @@
         <v>90</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>62</v>
@@ -6976,10 +6979,10 @@
         <v>71</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="AE32" s="4" t="s">
         <v>62</v>
@@ -7006,7 +7009,7 @@
         <v>77</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>78</v>
@@ -7027,16 +7030,16 @@
         <v>28</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU32" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
@@ -7047,31 +7050,31 @@
         <v>12</v>
       </c>
       <c r="BB32" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD32" s="2"/>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
-        <v>456</v>
+      <c r="D33" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -7095,10 +7098,10 @@
         <v>89</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>62</v>
@@ -7140,10 +7143,10 @@
         <v>71</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="AE33" s="4" t="s">
         <v>62</v>
@@ -7170,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>78</v>
@@ -7191,16 +7194,16 @@
         <v>28</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU33" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
@@ -7211,31 +7214,31 @@
         <v>9</v>
       </c>
       <c r="BB33" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD33" s="2"/>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
-        <v>456</v>
+      <c r="D34" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -7259,10 +7262,10 @@
         <v>90</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>62</v>
@@ -7304,10 +7307,10 @@
         <v>71</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>62</v>
@@ -7334,7 +7337,7 @@
         <v>77</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>78</v>
@@ -7355,16 +7358,16 @@
         <v>28</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="AU34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
@@ -7375,31 +7378,31 @@
         <v>9</v>
       </c>
       <c r="BB34" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD34" s="2"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
-        <v>456</v>
+      <c r="D35" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -7423,10 +7426,10 @@
         <v>89</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>62</v>
@@ -7468,10 +7471,10 @@
         <v>71</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="AE35" s="4" t="s">
         <v>62</v>
@@ -7498,7 +7501,7 @@
         <v>77</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>78</v>
@@ -7519,16 +7522,16 @@
         <v>28</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="AU35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ35" s="3" t="s">
         <v>9</v>
@@ -7537,30 +7540,30 @@
         <v>9</v>
       </c>
       <c r="BB35" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
-        <v>456</v>
+      <c r="D36" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -7584,10 +7587,10 @@
         <v>90</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>62</v>
@@ -7629,10 +7632,10 @@
         <v>71</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>62</v>
@@ -7659,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AN36" s="4" t="s">
         <v>78</v>
@@ -7686,10 +7689,10 @@
         <v>82</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ36" s="3" t="s">
         <v>12</v>
@@ -7698,30 +7701,30 @@
         <v>9</v>
       </c>
       <c r="BB36" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
-        <v>456</v>
+      <c r="D37" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -7745,10 +7748,10 @@
         <v>90</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>62</v>
@@ -7790,10 +7793,10 @@
         <v>71</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="AE37" s="4" t="s">
         <v>62</v>
@@ -7820,7 +7823,7 @@
         <v>77</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="AN37" s="4" t="s">
         <v>78</v>
@@ -7847,10 +7850,10 @@
         <v>82</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ37" s="3" t="s">
         <v>9</v>
@@ -7859,10 +7862,10 @@
         <v>9</v>
       </c>
       <c r="BB37" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7870,15 +7873,14 @@
     <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
     <hyperlink ref="S3:S19" r:id="rId2" display="d@gmail.com"/>
     <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="B3:B19" r:id="rId4" display="http://demo.invessence.com:8080/login.xhtml?rep=100"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="S20" r:id="rId6" display="d@gmail.com"/>
-    <hyperlink ref="S21:S37" r:id="rId7" display="d@gmail.com"/>
-    <hyperlink ref="B20" r:id="rId8"/>
-    <hyperlink ref="B21:B37" r:id="rId9" display="http://demo.invessence.com:8080/login.xhtml?rep=200"/>
+    <hyperlink ref="S20" r:id="rId4" display="d@gmail.com"/>
+    <hyperlink ref="S21:S37" r:id="rId5" display="d@gmail.com"/>
+    <hyperlink ref="B20" r:id="rId6"/>
+    <hyperlink ref="B3:B19" r:id="rId7" display="http://uattcm.invessence.com:8080//login.xhtml?rep=100"/>
+    <hyperlink ref="B21:B37" r:id="rId8" display="http://uattcm.invessence.com:8080/login.xhtml?rep=200"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="265"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB9" sqref="BB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2629,7 @@
         <v>269</v>
       </c>
       <c r="BC2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD2" s="2"/>
     </row>
@@ -5574,7 +5574,7 @@
         <v>269</v>
       </c>
       <c r="BC20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD20" s="2"/>
     </row>
@@ -8519,7 +8519,7 @@
         <v>269</v>
       </c>
       <c r="BC38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD38" s="2"/>
     </row>
@@ -8683,7 +8683,7 @@
         <v>269</v>
       </c>
       <c r="BC39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD39" s="2"/>
     </row>
@@ -8847,7 +8847,7 @@
         <v>269</v>
       </c>
       <c r="BC40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD40" s="2"/>
     </row>
@@ -9011,7 +9011,7 @@
         <v>269</v>
       </c>
       <c r="BC41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD41" s="2"/>
     </row>
@@ -9175,7 +9175,7 @@
         <v>269</v>
       </c>
       <c r="BC42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD42" s="2"/>
     </row>
@@ -9339,7 +9339,7 @@
         <v>269</v>
       </c>
       <c r="BC43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD43" s="2"/>
     </row>
@@ -9503,7 +9503,7 @@
         <v>269</v>
       </c>
       <c r="BC44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD44" s="2"/>
     </row>
@@ -9667,7 +9667,7 @@
         <v>269</v>
       </c>
       <c r="BC45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD45" s="2"/>
     </row>
@@ -9831,7 +9831,7 @@
         <v>269</v>
       </c>
       <c r="BC46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD46" s="2"/>
     </row>
@@ -9995,7 +9995,7 @@
         <v>269</v>
       </c>
       <c r="BC47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD47" s="2"/>
     </row>
@@ -10159,7 +10159,7 @@
         <v>269</v>
       </c>
       <c r="BC48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD48" s="2"/>
     </row>
@@ -10323,7 +10323,7 @@
         <v>269</v>
       </c>
       <c r="BC49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD49" s="2"/>
     </row>
@@ -10487,7 +10487,7 @@
         <v>269</v>
       </c>
       <c r="BC50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD50" s="2"/>
     </row>
@@ -10651,7 +10651,7 @@
         <v>269</v>
       </c>
       <c r="BC51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD51" s="2"/>
     </row>
@@ -10815,7 +10815,7 @@
         <v>269</v>
       </c>
       <c r="BC52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD52" s="2"/>
     </row>
@@ -10977,7 +10977,7 @@
         <v>269</v>
       </c>
       <c r="BC53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -11138,7 +11138,7 @@
         <v>269</v>
       </c>
       <c r="BC54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
@@ -11299,7 +11299,7 @@
         <v>269</v>
       </c>
       <c r="BC55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>269</v>
       </c>
       <c r="BC56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD56" s="2"/>
     </row>
@@ -11628,7 +11628,7 @@
         <v>269</v>
       </c>
       <c r="BC57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD57" s="2"/>
     </row>
@@ -11792,7 +11792,7 @@
         <v>269</v>
       </c>
       <c r="BC58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD58" s="2"/>
     </row>
@@ -11956,7 +11956,7 @@
         <v>269</v>
       </c>
       <c r="BC59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD59" s="2"/>
     </row>
@@ -12120,7 +12120,7 @@
         <v>269</v>
       </c>
       <c r="BC60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD60" s="2"/>
     </row>
@@ -12284,7 +12284,7 @@
         <v>269</v>
       </c>
       <c r="BC61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD61" s="2"/>
     </row>
@@ -12448,7 +12448,7 @@
         <v>269</v>
       </c>
       <c r="BC62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD62" s="2"/>
     </row>
@@ -12612,7 +12612,7 @@
         <v>269</v>
       </c>
       <c r="BC63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD63" s="2"/>
     </row>
@@ -12776,7 +12776,7 @@
         <v>269</v>
       </c>
       <c r="BC64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD64" s="2"/>
     </row>
@@ -12940,7 +12940,7 @@
         <v>269</v>
       </c>
       <c r="BC65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD65" s="2"/>
     </row>
@@ -13104,7 +13104,7 @@
         <v>269</v>
       </c>
       <c r="BC66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD66" s="2"/>
     </row>
@@ -13268,7 +13268,7 @@
         <v>269</v>
       </c>
       <c r="BC67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD67" s="2"/>
     </row>
@@ -13432,7 +13432,7 @@
         <v>269</v>
       </c>
       <c r="BC68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD68" s="2"/>
     </row>
@@ -13596,7 +13596,7 @@
         <v>269</v>
       </c>
       <c r="BC69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD69" s="2"/>
     </row>
@@ -13760,7 +13760,7 @@
         <v>269</v>
       </c>
       <c r="BC70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD70" s="2"/>
     </row>
@@ -13922,7 +13922,7 @@
         <v>269</v>
       </c>
       <c r="BC71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.25">
@@ -14083,7 +14083,7 @@
         <v>269</v>
       </c>
       <c r="BC72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.25">
@@ -14244,7 +14244,7 @@
         <v>269</v>
       </c>
       <c r="BC73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -14275,7 +14275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccount.xlsx
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:BD73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB9" sqref="BB9"/>
+      <selection activeCell="BC20" sqref="BC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2793,7 @@
         <v>269</v>
       </c>
       <c r="BC3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD3" s="2"/>
     </row>
@@ -4105,7 +4105,7 @@
         <v>269</v>
       </c>
       <c r="BC11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD11" s="2"/>
     </row>
@@ -5574,7 +5574,7 @@
         <v>269</v>
       </c>
       <c r="BC20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD20" s="2"/>
     </row>
@@ -8357,7 +8357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>588</v>
       </c>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="BD38" s="2"/>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>589</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="BD39" s="2"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>590</v>
       </c>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="BD40" s="2"/>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>591</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="BD41" s="2"/>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>592</v>
       </c>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="BD42" s="2"/>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>593</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="BD43" s="2"/>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>594</v>
       </c>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="BD44" s="2"/>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>595</v>
       </c>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="BD45" s="2"/>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>596</v>
       </c>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="BD46" s="2"/>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>597</v>
       </c>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="BD47" s="2"/>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>598</v>
       </c>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="BD48" s="2"/>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>599</v>
       </c>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="BD49" s="2"/>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>600</v>
       </c>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="BD50" s="2"/>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>601</v>
       </c>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="BD51" s="2"/>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>602</v>
       </c>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BD52" s="2"/>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>603</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>604</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>605</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>606</v>
       </c>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="BD56" s="2"/>
     </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>607</v>
       </c>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="BD57" s="2"/>
     </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>608</v>
       </c>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="BD58" s="2"/>
     </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>609</v>
       </c>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="BD59" s="2"/>
     </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>610</v>
       </c>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="BD60" s="2"/>
     </row>
-    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>611</v>
       </c>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="BD61" s="2"/>
     </row>
-    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>612</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="BD62" s="2"/>
     </row>
-    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>613</v>
       </c>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="BD63" s="2"/>
     </row>
-    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>614</v>
       </c>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="BD64" s="2"/>
     </row>
-    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>615</v>
       </c>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="BD65" s="2"/>
     </row>
-    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>616</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="BD66" s="2"/>
     </row>
-    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>617</v>
       </c>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="BD67" s="2"/>
     </row>
-    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>618</v>
       </c>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="BD68" s="2"/>
     </row>
-    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>619</v>
       </c>
@@ -13600,7 +13600,7 @@
       </c>
       <c r="BD69" s="2"/>
     </row>
-    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="BD70" s="2"/>
     </row>
-    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>621</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>622</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>623</v>
       </c>
